--- a/data/test_db.xlsx
+++ b/data/test_db.xlsx
@@ -419,10 +419,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -439,6 +439,30 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/test_db.xlsx
+++ b/data/test_db.xlsx
@@ -7,6 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="testTable" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -467,4 +468,35 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>v1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>v2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/test_db.xlsx
+++ b/data/test_db.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -448,19 +448,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>

--- a/data/test_db.xlsx
+++ b/data/test_db.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -473,6 +473,18 @@
       <c r="B4" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>

--- a/data/test_db.xlsx
+++ b/data/test_db.xlsx
@@ -7,7 +7,6 @@
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="testTable" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -492,35 +491,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>v1</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>v2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/data/test_db.xlsx
+++ b/data/test_db.xlsx
@@ -7,6 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="testTable" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -419,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -442,12 +443,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -466,22 +467,58 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -491,4 +528,37 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>